--- a/dup2/dup2_Restoran.xlsx
+++ b/dup2/dup2_Restoran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
